--- a/5 discriminant analysis/5.1 马氏判别（X是行向量）.xlsx
+++ b/5 discriminant analysis/5.1 马氏判别（X是行向量）.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jupyter_run\data_analysis_method\5 discriminant analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\data_analysis_method\5 discriminant analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29570" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29573" windowHeight="12393"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -380,15 +381,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>34229</xdr:colOff>
+          <xdr:colOff>33867</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>78237</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>24449</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>107576</xdr:rowOff>
+          <xdr:rowOff>105833</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -432,15 +433,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>464535</xdr:colOff>
+          <xdr:colOff>465667</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>63568</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>400967</xdr:colOff>
+          <xdr:colOff>402167</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>151585</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -499,8 +500,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7999388" y="7964062"/>
-          <a:ext cx="3573669" cy="1482618"/>
+          <a:off x="7790801" y="8021247"/>
+          <a:ext cx="3458983" cy="1487166"/>
           <a:chOff x="4261684" y="5454051"/>
           <a:chExt cx="6392863" cy="2922588"/>
         </a:xfrm>
@@ -785,15 +786,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>19</xdr:col>
-          <xdr:colOff>327619</xdr:colOff>
+          <xdr:colOff>325967</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>9780</xdr:rowOff>
+          <xdr:rowOff>8467</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>23</xdr:col>
-          <xdr:colOff>254272</xdr:colOff>
+          <xdr:colOff>254000</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>161365</xdr:rowOff>
+          <xdr:rowOff>160867</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -837,15 +838,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>25</xdr:col>
-          <xdr:colOff>640569</xdr:colOff>
+          <xdr:colOff>639233</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>58678</xdr:rowOff>
+          <xdr:rowOff>59267</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>29</xdr:col>
-          <xdr:colOff>73348</xdr:colOff>
+          <xdr:colOff>71967</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>127136</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -889,15 +890,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>33</xdr:col>
-          <xdr:colOff>58678</xdr:colOff>
+          <xdr:colOff>59267</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>58678</xdr:rowOff>
+          <xdr:rowOff>59267</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>36</xdr:col>
-          <xdr:colOff>205373</xdr:colOff>
+          <xdr:colOff>207433</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>127136</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -978,6 +979,64 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Config"/>
+      <sheetName val="Wilcoxon Table"/>
+      <sheetName val="Mann Table"/>
+      <sheetName val="Runs Table"/>
+      <sheetName val="KS Table"/>
+      <sheetName val="KS2 Table"/>
+      <sheetName val="Lil Table"/>
+      <sheetName val="AD Table"/>
+      <sheetName val="AD2 Table"/>
+      <sheetName val="SW Table"/>
+      <sheetName val="Stud. Q Table"/>
+      <sheetName val="Stud. Q Table 2"/>
+      <sheetName val="Sp Rho Table"/>
+      <sheetName val="Ken Tau Table"/>
+      <sheetName val="Durbin Table"/>
+      <sheetName val="Dunnett Table"/>
+      <sheetName val="Dunnett 1"/>
+      <sheetName val="Prime"/>
+      <sheetName val="MSSD"/>
+      <sheetName val="Dict"/>
+      <sheetName val="ADict"/>
+      <sheetName val="XRealStats"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="MSUB"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1298,18 +1357,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z7" activeCellId="1" sqref="AC7 Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" customWidth="1"/>
-    <col min="24" max="24" width="10.796875" customWidth="1"/>
+    <col min="7" max="7" width="6.64453125" customWidth="1"/>
+    <col min="8" max="8" width="6.3515625" customWidth="1"/>
+    <col min="24" max="24" width="10.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1418,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1434,7 +1493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1504,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="Y3" s="13">
-        <f t="array" ref="Y3:Z3">[1]!MSUB(V3:W3,M$14:N$14)</f>
+        <f t="array" ref="Y3:Z3">[2]!MSUB(V3:W3,M$14:N$14)</f>
         <v>-3.826086956521749</v>
       </c>
       <c r="Z3" s="13">
@@ -1526,7 +1585,7 @@
         <v>10.399763214560972</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1596,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="Y4" s="13">
-        <f t="array" ref="Y4:Z4">[1]!MSUB(V4:W4,M$14:N$14)</f>
+        <f t="array" ref="Y4:Z4">[2]!MSUB(V4:W4,M$14:N$14)</f>
         <v>68.173913043478251</v>
       </c>
       <c r="Z4" s="13">
@@ -1618,7 +1677,7 @@
         <v>14.592713869311966</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1688,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="Y5" s="13">
-        <f t="array" ref="Y5:Z5">[1]!MSUB(V5:W5,M$14:N$14)</f>
+        <f t="array" ref="Y5:Z5">[2]!MSUB(V5:W5,M$14:N$14)</f>
         <v>-23.826086956521749</v>
       </c>
       <c r="Z5" s="13">
@@ -1710,7 +1769,7 @@
         <v>1.2989197421488625</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1780,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="Y6" s="13">
-        <f t="array" ref="Y6:Z6">[1]!MSUB(V6:W6,M$14:N$14)</f>
+        <f t="array" ref="Y6:Z6">[2]!MSUB(V6:W6,M$14:N$14)</f>
         <v>-16.826086956521749</v>
       </c>
       <c r="Z6" s="13">
@@ -1802,7 +1861,7 @@
         <v>0.64459417911083094</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1848,7 +1907,7 @@
         <v>2</v>
       </c>
       <c r="Y7" s="13">
-        <f t="array" ref="Y7:Z7">[1]!MSUB(V7:W7,M$14:N$14)</f>
+        <f t="array" ref="Y7:Z7">[2]!MSUB(V7:W7,M$14:N$14)</f>
         <v>-45.826086956521749</v>
       </c>
       <c r="Z7" s="13">
@@ -1870,7 +1929,7 @@
         <v>3.8449289610916787E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1903,7 +1962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1959,7 +2018,7 @@
       <c r="AO9" s="8"/>
       <c r="AP9" s="8"/>
     </row>
-    <row r="10" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -2008,7 +2067,7 @@
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
     </row>
-    <row r="11" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -2057,7 +2116,7 @@
       <c r="AO11" s="8"/>
       <c r="AP11" s="8"/>
     </row>
-    <row r="12" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2108,7 +2167,7 @@
       <c r="AO12" s="8"/>
       <c r="AP12" s="8"/>
     </row>
-    <row r="13" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -2172,7 +2231,7 @@
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
     </row>
-    <row r="14" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -2246,7 +2305,7 @@
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
     </row>
-    <row r="15" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -2311,7 +2370,7 @@
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
     </row>
-    <row r="16" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -2359,7 +2418,7 @@
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
     </row>
-    <row r="17" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -2419,7 +2478,7 @@
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
     </row>
-    <row r="18" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -2493,7 +2552,7 @@
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
     </row>
-    <row r="19" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -2558,7 +2617,7 @@
       <c r="AO19" s="8"/>
       <c r="AP19" s="8"/>
     </row>
-    <row r="20" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -2606,7 +2665,7 @@
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
     </row>
-    <row r="21" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -2654,7 +2713,7 @@
       <c r="AO21" s="8"/>
       <c r="AP21" s="8"/>
     </row>
-    <row r="22" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -2702,7 +2761,7 @@
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
     </row>
-    <row r="23" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -2753,7 +2812,7 @@
       <c r="AO23" s="8"/>
       <c r="AP23" s="8"/>
     </row>
-    <row r="24" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -2816,7 +2875,7 @@
       <c r="AO24" s="8"/>
       <c r="AP24" s="8"/>
     </row>
-    <row r="25" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -2878,7 +2937,7 @@
       <c r="AO25" s="8"/>
       <c r="AP25" s="8"/>
     </row>
-    <row r="26" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -2926,7 +2985,7 @@
       <c r="AO26" s="8"/>
       <c r="AP26" s="8"/>
     </row>
-    <row r="27" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -2989,7 +3048,7 @@
       <c r="AO27" s="8"/>
       <c r="AP27" s="8"/>
     </row>
-    <row r="28" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -3057,7 +3116,7 @@
       <c r="AO28" s="8"/>
       <c r="AP28" s="8"/>
     </row>
-    <row r="29" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -3105,7 +3164,7 @@
       <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
     </row>
-    <row r="30" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -3168,7 +3227,7 @@
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
     </row>
-    <row r="31" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -3236,7 +3295,7 @@
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
     </row>
-    <row r="32" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -3284,7 +3343,7 @@
       <c r="AO32" s="8"/>
       <c r="AP32" s="8"/>
     </row>
-    <row r="33" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -3332,7 +3391,7 @@
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
     </row>
-    <row r="34" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -3380,7 +3439,7 @@
       <c r="AO34" s="8"/>
       <c r="AP34" s="8"/>
     </row>
-    <row r="35" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -3428,7 +3487,7 @@
       <c r="AO35" s="8"/>
       <c r="AP35" s="8"/>
     </row>
-    <row r="36" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -3476,7 +3535,7 @@
       <c r="AO36" s="8"/>
       <c r="AP36" s="8"/>
     </row>
-    <row r="37" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -3524,7 +3583,7 @@
       <c r="AO37" s="8"/>
       <c r="AP37" s="8"/>
     </row>
-    <row r="38" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -3572,7 +3631,7 @@
       <c r="AO38" s="8"/>
       <c r="AP38" s="8"/>
     </row>
-    <row r="39" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -3620,7 +3679,7 @@
       <c r="AO39" s="8"/>
       <c r="AP39" s="8"/>
     </row>
-    <row r="40" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -3668,7 +3727,7 @@
       <c r="AO40" s="8"/>
       <c r="AP40" s="8"/>
     </row>
-    <row r="41" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>2</v>
       </c>
@@ -3716,7 +3775,7 @@
       <c r="AO41" s="8"/>
       <c r="AP41" s="8"/>
     </row>
-    <row r="42" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -3764,7 +3823,7 @@
       <c r="AO42" s="8"/>
       <c r="AP42" s="8"/>
     </row>
-    <row r="43" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>2</v>
       </c>
@@ -3812,7 +3871,7 @@
       <c r="AO43" s="8"/>
       <c r="AP43" s="8"/>
     </row>
-    <row r="44" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -3876,7 +3935,7 @@
       <c r="AO44" s="8"/>
       <c r="AP44" s="8"/>
     </row>
-    <row r="45" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>2</v>
       </c>
@@ -3922,7 +3981,7 @@
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
     </row>
-    <row r="46" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -3968,7 +4027,7 @@
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
     </row>
-    <row r="47" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>2</v>
       </c>
@@ -4010,7 +4069,7 @@
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
     </row>
-    <row r="48" spans="1:42" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:42" ht="14.7" x14ac:dyDescent="0.45">
       <c r="J48" s="8" t="s">
         <v>33</v>
       </c>
@@ -4027,7 +4086,7 @@
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
     </row>
-    <row r="49" spans="10:19" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="49" spans="10:19" ht="14.7" x14ac:dyDescent="0.45">
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -4039,7 +4098,7 @@
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
     </row>
-    <row r="50" spans="10:19" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="50" spans="10:19" ht="14.7" x14ac:dyDescent="0.45">
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -4051,7 +4110,7 @@
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
     </row>
-    <row r="51" spans="10:19" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="51" spans="10:19" ht="14.7" x14ac:dyDescent="0.45">
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
@@ -4063,7 +4122,7 @@
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
     </row>
-    <row r="52" spans="10:19" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="52" spans="10:19" ht="14.7" x14ac:dyDescent="0.45">
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -4092,15 +4151,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>34229</xdr:colOff>
+                <xdr:colOff>33867</xdr:colOff>
                 <xdr:row>20</xdr:row>
-                <xdr:rowOff>78237</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>24449</xdr:colOff>
+                <xdr:colOff>25400</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>107576</xdr:rowOff>
+                <xdr:rowOff>105833</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4117,15 +4176,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>464535</xdr:colOff>
+                <xdr:colOff>465667</xdr:colOff>
                 <xdr:row>32</xdr:row>
-                <xdr:rowOff>63568</xdr:rowOff>
+                <xdr:rowOff>63500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>17</xdr:col>
-                <xdr:colOff>400967</xdr:colOff>
+                <xdr:colOff>402167</xdr:colOff>
                 <xdr:row>36</xdr:row>
-                <xdr:rowOff>151585</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4142,15 +4201,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>19</xdr:col>
-                <xdr:colOff>327619</xdr:colOff>
+                <xdr:colOff>325967</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>9780</xdr:rowOff>
+                <xdr:rowOff>8467</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
-                <xdr:colOff>254272</xdr:colOff>
+                <xdr:colOff>254000</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>161365</xdr:rowOff>
+                <xdr:rowOff>160867</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4167,15 +4226,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>25</xdr:col>
-                <xdr:colOff>640569</xdr:colOff>
+                <xdr:colOff>639233</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>58678</xdr:rowOff>
+                <xdr:rowOff>59267</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>29</xdr:col>
-                <xdr:colOff>73348</xdr:colOff>
+                <xdr:colOff>71967</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>127136</xdr:rowOff>
+                <xdr:rowOff>127000</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4192,15 +4251,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>33</xdr:col>
-                <xdr:colOff>58678</xdr:colOff>
+                <xdr:colOff>59267</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>58678</xdr:rowOff>
+                <xdr:rowOff>59267</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>36</xdr:col>
-                <xdr:colOff>205373</xdr:colOff>
+                <xdr:colOff>207433</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>127136</xdr:rowOff>
+                <xdr:rowOff>127000</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
